--- a/Mile.NtCrt.References/Notes/NtCrtNewSymbols.xlsx
+++ b/Mile.NtCrt.References/Notes/NtCrtNewSymbols.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectMile\Mile.Windows.NtCrt\Mile.NtCrt.References\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64DFBD-35FF-4A1F-88FA-809E1CD7F93B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAE761C-C6D4-4B2B-8A8D-0F3FA0468533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8292" yWindow="4884" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New CRT Functions" sheetId="1" r:id="rId1"/>
+    <sheet name="New ntdll.dll CRT Functions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -564,9 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
